--- a/tools/test_table.xlsx
+++ b/tools/test_table.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18096" windowHeight="7788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18096" windowHeight="7788" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ver.1" sheetId="1" r:id="rId1"/>
+    <sheet name="ver.2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="141">
   <si>
     <t>ふ</t>
     <phoneticPr fontId="2"/>
@@ -172,6 +173,1424 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>フトワク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>え</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>c2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>c3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>r2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>r3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>r2c2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>き</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>く</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rsv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>け</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>し</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>斜体</t>
+    <rPh sb="0" eb="2">
+      <t>シャタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>太字</t>
+    <rPh sb="0" eb="1">
+      <t>フト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>太字・斜体</t>
+    <rPh sb="0" eb="2">
+      <t>フトジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シャタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下線</t>
+    <rPh sb="0" eb="2">
+      <t>カセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>斜体・下線</t>
+    <rPh sb="0" eb="2">
+      <t>シャタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>太字・下線</t>
+    <rPh sb="0" eb="2">
+      <t>フトジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>太字・斜体・下線</t>
+    <rPh sb="0" eb="2">
+      <t>フトジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シャタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背景赤</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背景緑</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背景青</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>枠線なし</t>
+    <rPh sb="0" eb="2">
+      <t>ワクセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぬ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>枠線左</t>
+    <rPh sb="0" eb="2">
+      <t>ワクセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>枠線右</t>
+    <rPh sb="0" eb="2">
+      <t>ワクセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ね</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>の</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>枠線上</t>
+    <rPh sb="0" eb="2">
+      <t>ワクセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>枠線下</t>
+    <rPh sb="0" eb="2">
+      <t>ワクセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>は</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>み</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>太枠線</t>
+    <rPh sb="0" eb="2">
+      <t>フトワク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>む</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>極太枠線</t>
+    <rPh sb="0" eb="2">
+      <t>ゴクブト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ワクセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>も</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>や</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゆ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>よ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ら</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>れ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左揃え</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリゾロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右揃え</t>
+    <rPh sb="0" eb="2">
+      <t>ミギゾロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水平中央揃え</t>
+    <rPh sb="2" eb="5">
+      <t>チュウオウゾロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字の
+改行</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背景グラデーション</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>一部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赤</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>一部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00FF00"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>緑</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>一部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>青</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>一部</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>太字</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フトジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>一部</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>斜体</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>一部</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下線</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>文字の
+改行と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一部色</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>スタイル</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>り</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>る</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>文字の
+改行と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一部色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>スタイル</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>2色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00FF00"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>3色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00FF00"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>複</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00FF00"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ス</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>タ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>イ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ル</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字サイズの指定</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>サ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>イ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ズ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上揃え・
+水平中央揃え</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>チュウオウゾロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下揃え
+右揃え</t>
+    <rPh sb="0" eb="2">
+      <t>シタゾロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ミギゾロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字赤色</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アカイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字緑色</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミドリイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字青色</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アオイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カラーパレット外の色</t>
+    <rPh sb="7" eb="8">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字色自動</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字色黒</t>
+    <rPh sb="0" eb="3">
+      <t>モジショク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤枠</t>
+    <rPh sb="0" eb="2">
+      <t>アカワク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>緑枠</t>
+    <rPh sb="0" eb="2">
+      <t>ミドリワク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>青枠</t>
+    <rPh sb="0" eb="2">
+      <t>アオワク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>め</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背景白 (not透明)</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結合セルかつ下線の色が列ごとに違う</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カセン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上がりの線</t>
+    <rPh sb="0" eb="2">
+      <t>ミギア</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右下がりの線</t>
+    <rPh sb="0" eb="2">
+      <t>ミギサ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ろ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>わ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上がりの太線</t>
+    <rPh sb="0" eb="2">
+      <t>ミギア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フトセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右下がりの太線</t>
+    <rPh sb="0" eb="2">
+      <t>ミギサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フトセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取り消し線</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下線・取消し</t>
+    <rPh sb="0" eb="2">
+      <t>カセン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上太線</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>フトセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>細かい点線1</t>
+    <rPh sb="0" eb="1">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>細かい点線2</t>
+    <rPh sb="0" eb="1">
+      <t>コマカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>細かい点線3</t>
+    <rPh sb="0" eb="1">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>二点鎖線</t>
+    <rPh sb="0" eb="4">
+      <t>ニテンサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一点鎖線</t>
+    <rPh sb="0" eb="4">
+      <t>イッテンサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>太二点鎖線</t>
+    <rPh sb="0" eb="1">
+      <t>フト</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ニテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>斜・太・一点鎖線</t>
+    <rPh sb="0" eb="1">
+      <t>ナナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フト</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>イッテ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一点鎖線</t>
+    <rPh sb="0" eb="4">
+      <t>イッテンサセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>太い点線</t>
+    <rPh sb="0" eb="1">
+      <t>フト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テンセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>二重線</t>
+    <rPh sb="0" eb="3">
+      <t>ニジュウセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pad</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pad</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rsv</t>
+  </si>
+  <si>
+    <t>rsv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dmy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pad</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rsv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>r4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>r2c2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>c2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>r4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>r3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>r2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>r3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>r3c2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セロリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rsv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rsv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>真っ黒</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Note: 以下のテスト用の表には未実装 (今後実装予定) の機能のためのテストパターンも含まれます。</t>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミジッソウ</t>
+    </rPh>
+    <rPh sb="22" eb="28">
+      <t>コンゴジッソウヨテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同じスタイルの部分はまとめて &lt;font&gt; で囲みたい。
+綺麗な判定方法を検討中。</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キレイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ケントウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>斜線は CSS で表現不可能</t>
+    <rPh sb="0" eb="2">
+      <t>シャセン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>フカノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>優先度低</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結合セルの辺に接した通常セルの辺は個別に線のスタイルを設定できる。そのため、通常セルに接している結合セルの辺へは線のスタイルをCSSで指定するべきではない。
+実装するのが大変そうだが、早めに対応しておきたい箇所ではある。</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セッ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>セッ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>カショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -180,7 +1599,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,8 +1656,295 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFEDD66"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,8 +1963,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill>
+        <stop position="0">
+          <color rgb="FFFF0000"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFFFF00"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -374,13 +2114,869 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00FF00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00FF00"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00FF00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00FF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF92D050"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF00FF00"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39994506668294322"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="mediumDashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="slantDashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="mediumDashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FFFFC000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="double">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="mediumDashed">
+        <color theme="4"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="mediumDashed">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFFF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FFFF00FF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF92D050"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF92D050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF92D050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF92D050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF92D050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF92D050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FFFF00FF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF0066FF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -390,50 +2986,431 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,9 +3420,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0066FF"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
+      <color rgb="FFFEDD66"/>
     </mruColors>
   </colors>
   <extLst>
@@ -725,7 +3704,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C5:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:H10"/>
     </sheetView>
   </sheetViews>
@@ -736,37 +3715,37 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -780,17 +3759,17 @@
       </c>
     </row>
     <row r="8" spans="3:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -801,19 +3780,19 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="7">
         <v>6</v>
       </c>
     </row>
@@ -824,13 +3803,13 @@
       <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="9">
         <v>9</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="9">
         <v>10</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="9">
         <v>11</v>
       </c>
       <c r="H10" s="2">
@@ -849,4 +3828,912 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.88671875" customWidth="1"/>
+    <col min="17" max="17" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="141" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A2" s="141"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="143" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q4" s="142" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="142"/>
+    </row>
+    <row r="6" spans="1:17" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q6" s="142"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="142"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="83"/>
+      <c r="K8" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="85"/>
+      <c r="M8" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q8" s="142" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="87"/>
+      <c r="K9" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" s="89"/>
+      <c r="M9" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q9" s="142"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10" s="144" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q11" s="142" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="73"/>
+      <c r="H12" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q12" s="142"/>
+    </row>
+    <row r="13" spans="1:17" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="75"/>
+      <c r="H13" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="115"/>
+      <c r="K13" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" s="123" t="s">
+        <v>129</v>
+      </c>
+      <c r="N13" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="142"/>
+    </row>
+    <row r="14" spans="1:17" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="112"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q14" s="142"/>
+    </row>
+    <row r="15" spans="1:17" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="112"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" s="125"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q15" s="142"/>
+    </row>
+    <row r="16" spans="1:17" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="110"/>
+      <c r="J16" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" s="118"/>
+      <c r="L16" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="133"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q16" s="142"/>
+    </row>
+    <row r="17" spans="2:17" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="67"/>
+      <c r="E17" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="65"/>
+      <c r="G17" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="111"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" s="137" t="s">
+        <v>124</v>
+      </c>
+      <c r="N17" s="134"/>
+      <c r="O17" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="142"/>
+    </row>
+    <row r="18" spans="2:17" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="L18" s="118"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="142"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q19" s="142"/>
+    </row>
+    <row r="20" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="142"/>
+    </row>
+    <row r="21" spans="2:17" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q21" s="142"/>
+    </row>
+    <row r="22" spans="2:17" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="104" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" s="142"/>
+    </row>
+    <row r="23" spans="2:17" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="B23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q23" s="142"/>
+    </row>
+    <row r="24" spans="2:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="B24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q24" s="142"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q11:Q24"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="K18:L20"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C23:G23"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="120" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tools/test_table.xlsx
+++ b/tools/test_table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18096" windowHeight="7788" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16155" windowHeight="7785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ver.1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="153">
   <si>
     <t>ふ</t>
     <phoneticPr fontId="2"/>
@@ -484,75 +484,6 @@
     <t>背景グラデーション</t>
     <rPh sb="0" eb="2">
       <t>ハイケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>一部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>赤</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>一部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00FF00"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>緑</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ミドリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>一部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>青</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アオ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1116,19 +1047,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>文字色自動</t>
-    <rPh sb="0" eb="2">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>文字色黒</t>
     <rPh sb="0" eb="3">
       <t>モジショク</t>
@@ -1592,6 +1510,150 @@
     <rPh sb="103" eb="105">
       <t>カショ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h1&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーマの色</t>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>一部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>あか</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>一部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00FF00"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>みどり</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>一部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>あお</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下付き</t>
+    <rPh sb="0" eb="2">
+      <t>シタツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上付き</t>
+    <rPh sb="0" eb="2">
+      <t>ウエツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TODO:</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1599,7 +1661,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1943,6 +2005,42 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2976,7 +3074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3097,6 +3195,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3110,6 +3349,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3118,6 +3399,108 @@
     <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3127,296 +3510,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3436,6 +3657,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>291352</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円/楕円 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4482352" y="5871883"/>
+          <a:ext cx="1860178" cy="851648"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セル未選択エラー動作確認用</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="C28:E36" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="C28:E36"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="列1" dataDxfId="2"/>
+    <tableColumn id="2" name="列2" dataDxfId="1"/>
+    <tableColumn id="3" name="列3" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3708,41 +4004,41 @@
       <selection activeCell="C5" sqref="C5:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="40" t="s">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C5" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="43" t="s">
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="43"/>
+      <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="41" t="s">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C6" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43" t="s">
+      <c r="D6" s="89"/>
+      <c r="E6" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="91" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -3758,11 +4054,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="91"/>
       <c r="E8" s="8" t="s">
         <v>1</v>
       </c>
@@ -3776,7 +4072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
         <v>1</v>
       </c>
@@ -3796,7 +4092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C10" s="2">
         <v>7</v>
       </c>
@@ -3833,27 +4129,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.88671875" customWidth="1"/>
+    <col min="3" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="10.375" customWidth="1"/>
+    <col min="16" max="16" width="2.875" customWidth="1"/>
     <col min="17" max="17" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="141" t="s">
-        <v>135</v>
+    <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="80" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A2" s="141"/>
+    <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="80"/>
+      <c r="F2" s="83"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
@@ -3876,232 +4174,232 @@
         <v>26</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q3" s="143" t="s">
-        <v>139</v>
+        <v>114</v>
+      </c>
+      <c r="Q3" s="81" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="59" t="s">
-        <v>89</v>
+      <c r="C4" s="42" t="s">
+        <v>137</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>87</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="61" t="s">
-        <v>92</v>
+      <c r="G4" s="44" t="s">
+        <v>88</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="108" t="s">
-        <v>119</v>
+        <v>72</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>115</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q4" s="142" t="s">
-        <v>136</v>
+        <v>114</v>
+      </c>
+      <c r="Q4" s="108" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="52" t="s">
+      <c r="D5" s="90"/>
+      <c r="E5" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="62"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="104"/>
       <c r="H5" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="108" t="s">
-        <v>119</v>
+      <c r="N5" s="70" t="s">
+        <v>115</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q5" s="142"/>
+        <v>114</v>
+      </c>
+      <c r="Q5" s="108"/>
     </row>
-    <row r="6" spans="1:17" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="63" t="s">
-        <v>93</v>
+      <c r="F6" s="105"/>
+      <c r="G6" s="45" t="s">
+        <v>89</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I6" s="37" t="s">
         <v>65</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="108" t="s">
-        <v>119</v>
+        <v>70</v>
+      </c>
+      <c r="K6" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="143"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="70" t="s">
+        <v>115</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q6" s="142"/>
+        <v>114</v>
+      </c>
+      <c r="Q6" s="108"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
       <c r="G7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="108" t="s">
-        <v>119</v>
+        <v>76</v>
+      </c>
+      <c r="K7" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="70" t="s">
+        <v>115</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q7" s="142"/>
+        <v>114</v>
+      </c>
+      <c r="Q7" s="108"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="43"/>
+      <c r="G8" s="90"/>
       <c r="H8" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="83"/>
-      <c r="K8" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" s="85"/>
+        <v>117</v>
+      </c>
+      <c r="I8" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="117"/>
+      <c r="K8" s="118" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="119"/>
       <c r="M8" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="N8" s="108" t="s">
-        <v>119</v>
+        <v>95</v>
+      </c>
+      <c r="N8" s="70" t="s">
+        <v>115</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q8" s="142" t="s">
-        <v>137</v>
+        <v>114</v>
+      </c>
+      <c r="Q8" s="108" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
@@ -4115,28 +4413,28 @@
         <v>30</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="87"/>
-      <c r="K9" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" s="89"/>
+        <v>117</v>
+      </c>
+      <c r="I9" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="121"/>
+      <c r="K9" s="122" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="123"/>
       <c r="M9" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="N9" s="108" t="s">
-        <v>119</v>
+        <v>96</v>
+      </c>
+      <c r="N9" s="70" t="s">
+        <v>115</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q9" s="142"/>
+        <v>114</v>
+      </c>
+      <c r="Q9" s="108"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
@@ -4149,33 +4447,33 @@
       <c r="E10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="90" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="91" t="s">
-        <v>104</v>
+      <c r="F10" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>100</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="108" t="s">
-        <v>119</v>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="70" t="s">
+        <v>115</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q10" s="144" t="s">
-        <v>138</v>
+        <v>114</v>
+      </c>
+      <c r="Q10" s="82" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B11" s="14" t="s">
         <v>26</v>
       </c>
@@ -4188,74 +4486,74 @@
       <c r="E11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="45"/>
+      <c r="G11" s="106"/>
       <c r="H11" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="108" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="I11" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="70" t="s">
+        <v>115</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q11" s="142" t="s">
-        <v>140</v>
+        <v>114</v>
+      </c>
+      <c r="Q11" s="108" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="73"/>
+      <c r="G12" s="93"/>
       <c r="H12" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="L12" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="M12" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" s="108" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="N12" s="70" t="s">
+        <v>112</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q12" s="142"/>
+        <v>114</v>
+      </c>
+      <c r="Q12" s="108"/>
     </row>
-    <row r="13" spans="1:17" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B13" s="14" t="s">
         <v>26</v>
       </c>
@@ -4268,35 +4566,35 @@
       <c r="E13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="75"/>
+      <c r="F13" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="102"/>
       <c r="H13" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="145" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="73"/>
+      <c r="K13" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="J13" s="115"/>
-      <c r="K13" s="109" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13" s="121" t="s">
-        <v>128</v>
-      </c>
-      <c r="M13" s="123" t="s">
-        <v>129</v>
-      </c>
-      <c r="N13" s="65" t="s">
-        <v>126</v>
+      <c r="L13" s="132" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" s="134" t="s">
+        <v>125</v>
+      </c>
+      <c r="N13" s="95" t="s">
+        <v>122</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q13" s="142"/>
+        <v>114</v>
+      </c>
+      <c r="Q13" s="108"/>
     </row>
-    <row r="14" spans="1:17" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
         <v>26</v>
       </c>
@@ -4309,27 +4607,27 @@
       <c r="E14" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="58" t="s">
-        <v>84</v>
+      <c r="F14" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>81</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" s="112"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="67"/>
+        <v>117</v>
+      </c>
+      <c r="I14" s="146"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="97"/>
       <c r="O14" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q14" s="142"/>
+        <v>114</v>
+      </c>
+      <c r="Q14" s="108"/>
     </row>
-    <row r="15" spans="1:17" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
@@ -4349,22 +4647,22 @@
         <v>45</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I15" s="112"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="120" t="s">
-        <v>131</v>
-      </c>
-      <c r="M15" s="125"/>
-      <c r="N15" s="67"/>
+        <v>117</v>
+      </c>
+      <c r="I15" s="146"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="136"/>
+      <c r="N15" s="97"/>
       <c r="O15" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q15" s="142"/>
+        <v>114</v>
+      </c>
+      <c r="Q15" s="108"/>
     </row>
-    <row r="16" spans="1:17" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="14" t="s">
         <v>26</v>
       </c>
@@ -4380,240 +4678,254 @@
       <c r="F16" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="93" t="s">
-        <v>105</v>
+      <c r="G16" s="58" t="s">
+        <v>101</v>
       </c>
       <c r="H16" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="147"/>
+      <c r="J16" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" s="125"/>
+      <c r="L16" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="110"/>
-      <c r="J16" s="116" t="s">
-        <v>124</v>
-      </c>
-      <c r="K16" s="118"/>
-      <c r="L16" s="126" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" s="133"/>
-      <c r="N16" s="67"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="97"/>
       <c r="O16" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q16" s="142"/>
+        <v>114</v>
+      </c>
+      <c r="Q16" s="108"/>
     </row>
-    <row r="17" spans="2:17" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="64" t="s">
+      <c r="D17" s="97"/>
+      <c r="E17" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="92" t="s">
+      <c r="F17" s="95"/>
+      <c r="G17" s="57" t="s">
         <v>52</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17" s="111"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="M17" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="N17" s="134"/>
+        <v>117</v>
+      </c>
+      <c r="I17" s="71"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" s="112"/>
       <c r="O17" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q17" s="142"/>
+        <v>114</v>
+      </c>
+      <c r="Q17" s="108"/>
     </row>
-    <row r="18" spans="2:17" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="68" t="s">
+      <c r="E18" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="139" t="s">
-        <v>120</v>
+      <c r="G18" s="78" t="s">
+        <v>116</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="128" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" s="118"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="136"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="137" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="125"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="114"/>
       <c r="O18" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q18" s="142"/>
+        <v>114</v>
+      </c>
+      <c r="Q18" s="108"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="94" t="s">
+      <c r="E19" s="59" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="92" t="s">
+      <c r="G19" s="57" t="s">
         <v>60</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="130"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="139"/>
       <c r="M19" s="30"/>
       <c r="N19" s="9"/>
       <c r="O19" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q19" s="142"/>
+        <v>114</v>
+      </c>
+      <c r="Q19" s="108"/>
     </row>
-    <row r="20" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="98" t="s">
-        <v>110</v>
-      </c>
       <c r="G20" s="36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="132"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="141"/>
       <c r="M20" s="7"/>
       <c r="N20" s="2"/>
       <c r="O20" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="142"/>
+        <v>114</v>
+      </c>
+      <c r="Q20" s="108"/>
     </row>
-    <row r="21" spans="2:17" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="140" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="9"/>
+      <c r="I21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="L21" s="9"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q21" s="142"/>
+        <v>114</v>
+      </c>
+      <c r="Q21" s="108"/>
     </row>
-    <row r="22" spans="2:17" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="102" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="104" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="106" t="s">
-        <v>115</v>
-      </c>
       <c r="H22" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="I22" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q22" s="142"/>
+        <v>114</v>
+      </c>
+      <c r="Q22" s="108"/>
     </row>
-    <row r="23" spans="2:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="99" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="105"/>
+      <c r="C23" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="100"/>
       <c r="H23" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -4622,23 +4934,23 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q23" s="142"/>
+        <v>114</v>
+      </c>
+      <c r="Q23" s="108"/>
     </row>
-    <row r="24" spans="2:17" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" ht="30.75" x14ac:dyDescent="0.15">
       <c r="B24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
+      <c r="C24" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="131"/>
       <c r="H24" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -4647,78 +4959,182 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q24" s="142"/>
+        <v>114</v>
+      </c>
+      <c r="Q24" s="108"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="107" t="s">
-        <v>119</v>
+      <c r="C25" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="69" t="s">
+        <v>115</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C28" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C33" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="K18:L20"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I10:M10"/>
     <mergeCell ref="Q4:Q7"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="Q11:Q24"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="M17:N18"/>
     <mergeCell ref="N13:N16"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="K18:L20"/>
-    <mergeCell ref="F13:G13"/>
     <mergeCell ref="I11:M11"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K13:K15"/>
     <mergeCell ref="K7:M7"/>
+    <mergeCell ref="C24:G24"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="C6:C7"/>
@@ -4726,14 +5142,18 @@
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C24:G24"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C23:G23"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="120" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/tools/test_table.xlsx
+++ b/tools/test_table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\大貴\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\大貴\Documents\Excel2Html\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="155">
   <si>
     <t>ふ</t>
     <phoneticPr fontId="2"/>
@@ -1656,12 +1656,38 @@
     <t>TODO:</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>列幅確認用文字列</t>
+    <rPh sb="0" eb="2">
+      <t>レツハバ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カクニニョウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>列幅確認用文字列</t>
+    <rPh sb="0" eb="2">
+      <t>レツハバ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3663,14 +3689,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>291352</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>616322</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>268942</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>56031</xdr:rowOff>
     </xdr:to>
@@ -3681,8 +3707,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4482352" y="5871883"/>
-          <a:ext cx="1860178" cy="851648"/>
+          <a:off x="8998322" y="5703795"/>
+          <a:ext cx="1871384" cy="851648"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4004,13 +4030,13 @@
       <selection activeCell="C5" sqref="C5:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:8">
       <c r="C5" s="87" t="s">
         <v>7</v>
       </c>
@@ -4022,7 +4048,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8">
       <c r="C6" s="88" t="s">
         <v>10</v>
       </c>
@@ -4034,7 +4060,7 @@
       <c r="G6" s="90"/>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:8">
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -4054,7 +4080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" ht="14.25" thickBot="1">
       <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
@@ -4072,7 +4098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8" ht="15" thickTop="1" thickBot="1">
       <c r="C9" s="2">
         <v>1</v>
       </c>
@@ -4092,7 +4118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:8">
       <c r="C10" s="2">
         <v>7</v>
       </c>
@@ -4129,29 +4155,37 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="7" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.875" customWidth="1"/>
     <col min="17" max="17" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="17.25">
       <c r="A1" s="80" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="17.25">
       <c r="A2" s="80"/>
       <c r="F2" s="83"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
@@ -4198,7 +4232,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="12.75" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>26</v>
       </c>
@@ -4245,7 +4279,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="B5" s="14" t="s">
         <v>26</v>
       </c>
@@ -4284,7 +4318,7 @@
       </c>
       <c r="Q5" s="108"/>
     </row>
-    <row r="6" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="27">
       <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
@@ -4323,7 +4357,7 @@
       </c>
       <c r="Q6" s="108"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="B7" s="14" t="s">
         <v>26</v>
       </c>
@@ -4356,7 +4390,7 @@
       </c>
       <c r="Q7" s="108"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
@@ -4395,7 +4429,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
@@ -4434,7 +4468,7 @@
       </c>
       <c r="Q9" s="108"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
@@ -4473,7 +4507,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="B11" s="14" t="s">
         <v>26</v>
       </c>
@@ -4510,7 +4544,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="14.25" thickBot="1">
       <c r="B12" s="14" t="s">
         <v>26</v>
       </c>
@@ -4553,7 +4587,7 @@
       </c>
       <c r="Q12" s="108"/>
     </row>
-    <row r="13" spans="1:17" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="14.25" thickTop="1">
       <c r="B13" s="14" t="s">
         <v>26</v>
       </c>
@@ -4594,7 +4628,7 @@
       </c>
       <c r="Q13" s="108"/>
     </row>
-    <row r="14" spans="1:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="27.75" thickBot="1">
       <c r="B14" s="14" t="s">
         <v>26</v>
       </c>
@@ -4627,7 +4661,7 @@
       </c>
       <c r="Q14" s="108"/>
     </row>
-    <row r="15" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="15" thickTop="1" thickBot="1">
       <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
@@ -4662,7 +4696,7 @@
       </c>
       <c r="Q15" s="108"/>
     </row>
-    <row r="16" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="15" thickTop="1" thickBot="1">
       <c r="B16" s="14" t="s">
         <v>26</v>
       </c>
@@ -4699,7 +4733,7 @@
       </c>
       <c r="Q16" s="108"/>
     </row>
-    <row r="17" spans="2:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" ht="15" thickTop="1" thickBot="1">
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -4732,7 +4766,7 @@
       </c>
       <c r="Q17" s="108"/>
     </row>
-    <row r="18" spans="2:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" ht="15" thickTop="1" thickBot="1">
       <c r="B18" s="14" t="s">
         <v>26</v>
       </c>
@@ -4767,7 +4801,7 @@
       </c>
       <c r="Q18" s="108"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:17">
       <c r="B19" s="14" t="s">
         <v>26</v>
       </c>
@@ -4800,7 +4834,7 @@
       </c>
       <c r="Q19" s="108"/>
     </row>
-    <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" ht="14.25" thickBot="1">
       <c r="B20" s="14" t="s">
         <v>115</v>
       </c>
@@ -4833,7 +4867,7 @@
       </c>
       <c r="Q20" s="108"/>
     </row>
-    <row r="21" spans="2:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" ht="15" thickTop="1" thickBot="1">
       <c r="B21" s="14" t="s">
         <v>115</v>
       </c>
@@ -4872,7 +4906,7 @@
       </c>
       <c r="Q21" s="108"/>
     </row>
-    <row r="22" spans="2:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" ht="18" thickTop="1" thickBot="1">
       <c r="B22" s="14" t="s">
         <v>115</v>
       </c>
@@ -4913,7 +4947,7 @@
       </c>
       <c r="Q22" s="108"/>
     </row>
-    <row r="23" spans="2:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:17" ht="18.75">
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
@@ -4938,7 +4972,7 @@
       </c>
       <c r="Q23" s="108"/>
     </row>
-    <row r="24" spans="2:17" ht="30.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:17" ht="30.75">
       <c r="B24" s="14" t="s">
         <v>26</v>
       </c>
@@ -4963,7 +4997,7 @@
       </c>
       <c r="Q24" s="108"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:17">
       <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
@@ -5007,12 +5041,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:17">
       <c r="C27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:17">
       <c r="C28" s="30" t="s">
         <v>145</v>
       </c>
@@ -5023,7 +5057,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:17">
       <c r="C29" s="7" t="s">
         <v>148</v>
       </c>
@@ -5034,7 +5068,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:17">
       <c r="C30" s="7" t="s">
         <v>148</v>
       </c>
@@ -5045,7 +5079,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:17">
       <c r="C31" s="7" t="s">
         <v>148</v>
       </c>
@@ -5056,7 +5090,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:17">
       <c r="C32" s="7" t="s">
         <v>148</v>
       </c>
@@ -5067,7 +5101,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:8">
       <c r="C33" s="7" t="s">
         <v>148</v>
       </c>
@@ -5078,7 +5112,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:8">
       <c r="C34" s="7" t="s">
         <v>148</v>
       </c>
@@ -5089,7 +5123,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:8">
       <c r="C35" s="7" t="s">
         <v>148</v>
       </c>
@@ -5100,7 +5134,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:8">
       <c r="C36" s="7" t="s">
         <v>148</v>
       </c>
@@ -5109,6 +5143,14 @@
       </c>
       <c r="E36" s="7" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="54">
+      <c r="G38" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/tools/test_table.xlsx
+++ b/tools/test_table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="160">
   <si>
     <t>ふ</t>
     <phoneticPr fontId="2"/>
@@ -1680,6 +1680,28 @@
     <rPh sb="5" eb="8">
       <t>モジレツ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>列22</t>
+  </si>
+  <si>
+    <t>非表示セル</t>
+    <rPh sb="0" eb="3">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rsv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pad</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非表示セル</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2122,7 +2144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="79">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -2324,21 +2346,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF00FF00"/>
       </left>
       <right style="thin">
@@ -2431,36 +2438,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFC000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF92D050"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2661,19 +2638,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashDotDot">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dashDotDot">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashDotDot">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dashDot">
         <color indexed="64"/>
       </left>
@@ -2708,19 +2672,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="slantDashDot">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="mediumDashDot">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="mediumDashDot">
-        <color indexed="64"/>
-      </top>
-      <bottom style="mediumDashDot">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -3094,19 +3045,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF92D050"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3152,39 +3170,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3199,9 +3196,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3236,49 +3230,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
@@ -3287,58 +3281,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3362,6 +3341,9 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3377,46 +3359,58 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3428,58 +3422,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3497,62 +3494,129 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3689,15 +3753,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>616322</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>56031</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3749,12 +3813,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="C28:E36" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="C28:E36"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="列1" dataDxfId="2"/>
-    <tableColumn id="2" name="列2" dataDxfId="1"/>
-    <tableColumn id="3" name="列3" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="C29:F37" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="C29:F37"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="列1" dataDxfId="3"/>
+    <tableColumn id="2" name="列2" dataDxfId="2"/>
+    <tableColumn id="4" name="列22" dataDxfId="0"/>
+    <tableColumn id="3" name="列3" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4037,104 +4102,104 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:8">
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="90" t="s">
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="90"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90" t="s">
+      <c r="D6" s="76"/>
+      <c r="E6" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="14.25" thickBot="1">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="78"/>
+      <c r="E8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="15" thickTop="1" thickBot="1">
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>2</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>7</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>8</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>9</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>10</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>11</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>12</v>
       </c>
     </row>
@@ -4155,7 +4220,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4163,1032 +4228,1145 @@
   <cols>
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.875" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
+    <col min="5" max="5" width="15" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.875" customWidth="1"/>
+    <col min="18" max="18" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.25">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:18" ht="17.25">
+      <c r="A1" s="66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17.25">
-      <c r="A2" s="80"/>
-      <c r="F2" s="83"/>
+    <row r="2" spans="1:18" ht="17.25">
+      <c r="A2" s="66"/>
+      <c r="G2" s="69"/>
     </row>
-    <row r="3" spans="1:17">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:18">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="N3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="O3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="P3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q3" s="81" t="s">
+      <c r="R3" s="67" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12.75" customHeight="1">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="1:18" ht="12.75" customHeight="1">
+      <c r="B4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="G4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="H4" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="M4" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="N4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="O4" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="P4" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="R4" s="99" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:18">
+      <c r="B5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="103" t="s">
+      <c r="D5" s="125"/>
+      <c r="E5" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="77"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="N5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="O5" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="P5" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q5" s="108"/>
+      <c r="R5" s="99"/>
     </row>
-    <row r="6" spans="1:17" ht="27">
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:18" ht="27">
+      <c r="B6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="125"/>
+      <c r="H6" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="J6" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="K6" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="142" t="s">
+      <c r="L6" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="143"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="70" t="s">
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="P6" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q6" s="108"/>
+      <c r="R6" s="99"/>
     </row>
-    <row r="7" spans="1:17">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:18">
+      <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="9" t="s">
+      <c r="C7" s="77"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="144"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="127" t="s">
+      <c r="L7" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="70" t="s">
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="P7" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q7" s="108"/>
+      <c r="R7" s="99"/>
     </row>
-    <row r="8" spans="1:17">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:18">
+      <c r="B8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="125"/>
+      <c r="E8" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="90" t="s">
+      <c r="G8" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="90"/>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="77"/>
+      <c r="I8" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="116" t="s">
+      <c r="J8" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="117"/>
-      <c r="K8" s="118" t="s">
+      <c r="K8" s="110"/>
+      <c r="L8" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="119"/>
-      <c r="M8" s="39" t="s">
+      <c r="M8" s="112"/>
+      <c r="N8" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="N8" s="70" t="s">
+      <c r="O8" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="P8" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q8" s="108" t="s">
+      <c r="R8" s="99" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="1:18">
+      <c r="B9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="77"/>
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="120" t="s">
+      <c r="J9" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="121"/>
-      <c r="K9" s="122" t="s">
+      <c r="K9" s="114"/>
+      <c r="L9" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="123"/>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="116"/>
+      <c r="N9" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="70" t="s">
+      <c r="O9" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="P9" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q9" s="108"/>
+      <c r="R9" s="99"/>
     </row>
-    <row r="10" spans="1:17">
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="1:18">
+      <c r="B10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="G10" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="H10" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="107" t="s">
+      <c r="J10" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="70" t="s">
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="P10" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q10" s="82" t="s">
+      <c r="R10" s="68" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:18">
+      <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="G11" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="106"/>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="97"/>
+      <c r="I11" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="115" t="s">
+      <c r="J11" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="70" t="s">
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="P11" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q11" s="108" t="s">
+      <c r="R11" s="99" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14.25" thickBot="1">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="1:18" ht="14.25" thickBot="1">
+      <c r="B12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="92" t="s">
+      <c r="G12" s="126" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="93"/>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="127"/>
+      <c r="I12" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="J12" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="51" t="s">
+      <c r="K12" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="K12" s="52" t="s">
+      <c r="L12" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="L12" s="53" t="s">
+      <c r="M12" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="M12" s="54" t="s">
+      <c r="N12" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="N12" s="70" t="s">
+      <c r="O12" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="P12" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q12" s="108"/>
+      <c r="R12" s="99"/>
     </row>
-    <row r="13" spans="1:17" ht="14.25" thickTop="1">
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="1:18" ht="14.25" thickTop="1">
+      <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="101" t="s">
+      <c r="G13" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="102"/>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="133"/>
+      <c r="I13" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="145" t="s">
+      <c r="J13" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="J13" s="73"/>
-      <c r="K13" s="124" t="s">
+      <c r="K13" s="59"/>
+      <c r="L13" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="L13" s="132" t="s">
+      <c r="M13" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="M13" s="134" t="s">
+      <c r="N13" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="N13" s="95" t="s">
+      <c r="O13" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="P13" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q13" s="108"/>
+      <c r="R13" s="99"/>
     </row>
-    <row r="14" spans="1:17" ht="27.75" thickBot="1">
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="1:18" ht="27.75" thickBot="1">
+      <c r="B14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="G14" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="H14" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I14" s="146"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="14" t="s">
+      <c r="J14" s="94"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q14" s="108"/>
+      <c r="R14" s="99"/>
     </row>
-    <row r="15" spans="1:17" ht="15" thickTop="1" thickBot="1">
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="1:18" ht="64.5" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B15" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="155" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="155" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="155" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="155" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="155" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="155" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" s="94"/>
+      <c r="K15" s="157" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" s="85"/>
+      <c r="M15" s="156" t="s">
+        <v>159</v>
+      </c>
+      <c r="N15" s="82"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="R15" s="99"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" thickTop="1" thickBot="1">
+      <c r="B16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D16" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E16" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="G16" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="146"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="75" t="s">
+      <c r="J16" s="94"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="M15" s="136"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="14" t="s">
+      <c r="N16" s="83"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q15" s="108"/>
+      <c r="R16" s="99"/>
     </row>
-    <row r="16" spans="1:17" ht="15" thickTop="1" thickBot="1">
-      <c r="B16" s="14" t="s">
+    <row r="17" spans="2:18" ht="15" thickTop="1" thickBot="1">
+      <c r="B17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D17" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E17" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="G17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="H17" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="I17" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148" t="s">
+      <c r="J17" s="95"/>
+      <c r="K17" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="125"/>
-      <c r="L16" s="109" t="s">
+      <c r="L17" s="85"/>
+      <c r="M17" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="M16" s="110"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="14" t="s">
+      <c r="N17" s="101"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q16" s="108"/>
+      <c r="R17" s="99"/>
     </row>
-    <row r="17" spans="2:17" ht="15" thickTop="1" thickBot="1">
-      <c r="B17" s="14" t="s">
+    <row r="18" spans="2:18" ht="15" thickTop="1" thickBot="1">
+      <c r="B18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C18" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="94" t="s">
+      <c r="D18" s="85"/>
+      <c r="E18" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="95"/>
-      <c r="G17" s="57" t="s">
+      <c r="G18" s="106"/>
+      <c r="H18" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="I18" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="76" t="s">
+      <c r="J18" s="57"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="M17" s="111" t="s">
+      <c r="N18" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="N17" s="112"/>
-      <c r="O17" s="14" t="s">
+      <c r="O18" s="103"/>
+      <c r="P18" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q17" s="108"/>
+      <c r="R18" s="99"/>
     </row>
-    <row r="18" spans="2:17" ht="15" thickTop="1" thickBot="1">
-      <c r="B18" s="14" t="s">
+    <row r="19" spans="2:18" ht="15" thickTop="1" thickBot="1">
+      <c r="B19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C19" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D19" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E19" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="G19" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="78" t="s">
+      <c r="H19" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="I19" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="137" t="s">
+      <c r="J19" s="1"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="L18" s="125"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="14" t="s">
+      <c r="M19" s="85"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q18" s="108"/>
+      <c r="R19" s="99"/>
     </row>
-    <row r="19" spans="2:17">
-      <c r="B19" s="14" t="s">
+    <row r="20" spans="2:18">
+      <c r="B20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C20" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D20" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E20" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="H20" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="I20" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="139"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="14" t="s">
+      <c r="J20" s="1"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q19" s="108"/>
+      <c r="R20" s="99"/>
     </row>
-    <row r="20" spans="2:17" ht="14.25" thickBot="1">
-      <c r="B20" s="14" t="s">
+    <row r="21" spans="2:18" ht="14.25" thickBot="1">
+      <c r="B21" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C21" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D21" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E21" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="152" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="G21" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="H21" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="I21" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="140"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="14" t="s">
+      <c r="J21" s="1"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q20" s="108"/>
+      <c r="R21" s="99"/>
     </row>
-    <row r="21" spans="2:17" ht="15" thickTop="1" thickBot="1">
-      <c r="B21" s="14" t="s">
+    <row r="22" spans="2:18" ht="15" thickTop="1" thickBot="1">
+      <c r="B22" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C22" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D22" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E22" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="153" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="G22" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="H22" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="I22" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="L22" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="14" t="s">
+      <c r="M22" s="8"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q21" s="108"/>
+      <c r="R22" s="99"/>
     </row>
-    <row r="22" spans="2:17" ht="18" thickTop="1" thickBot="1">
-      <c r="B22" s="14" t="s">
+    <row r="23" spans="2:18" ht="18" thickTop="1" thickBot="1">
+      <c r="B23" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C23" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D23" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E23" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="G23" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="H23" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="I23" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="84" t="s">
+      <c r="J23" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="85" t="s">
+      <c r="K23" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="K22" s="86" t="s">
+      <c r="L23" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M23" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="14" t="s">
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q22" s="108"/>
+      <c r="R23" s="99"/>
     </row>
-    <row r="23" spans="2:17" ht="18.75">
-      <c r="B23" s="14" t="s">
+    <row r="24" spans="2:18" ht="18.75">
+      <c r="B24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C24" s="129" t="s">
         <v>78</v>
-      </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q23" s="108"/>
-    </row>
-    <row r="24" spans="2:17" ht="30.75">
-      <c r="B24" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="129" t="s">
-        <v>79</v>
       </c>
       <c r="D24" s="130"/>
       <c r="E24" s="130"/>
       <c r="F24" s="130"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="14" t="s">
+      <c r="G24" s="130"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="14" t="s">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q24" s="108"/>
+      <c r="R24" s="99"/>
     </row>
-    <row r="25" spans="2:17">
-      <c r="B25" s="14" t="s">
+    <row r="25" spans="2:18" ht="30.75">
+      <c r="B25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="R25" s="99"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D26" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="E26" s="55"/>
+      <c r="F26" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="G26" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="69" t="s">
+      <c r="H26" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="69" t="s">
+      <c r="I26" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="J26" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="K26" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="L26" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="M26" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="N26" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="N25" s="14" t="s">
+      <c r="O26" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="O25" s="14" t="s">
+      <c r="P26" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="2:17">
-      <c r="C27" t="s">
+    <row r="28" spans="2:18">
+      <c r="C28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="2:17">
-      <c r="C28" s="30" t="s">
+    <row r="29" spans="2:18">
+      <c r="C29" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E29" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="2:17">
-      <c r="C29" s="7" t="s">
+    <row r="30" spans="2:18">
+      <c r="C30" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="2:17">
-      <c r="C30" s="7" t="s">
+    <row r="31" spans="2:18">
+      <c r="C31" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="2:17">
-      <c r="C31" s="7" t="s">
+    <row r="32" spans="2:18">
+      <c r="C32" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="2:17">
-      <c r="C32" s="7" t="s">
+    <row r="33" spans="3:9">
+      <c r="C33" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="7" t="s">
+    <row r="34" spans="3:9">
+      <c r="C34" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="3:8">
-      <c r="C34" s="7" t="s">
+    <row r="35" spans="3:9">
+      <c r="C35" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="3:8">
-      <c r="C35" s="7" t="s">
+    <row r="36" spans="3:9">
+      <c r="C36" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="3:8">
-      <c r="C36" s="7" t="s">
+    <row r="37" spans="3:9">
+      <c r="C37" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="3:8" ht="54">
-      <c r="G38" s="37" t="s">
+    <row r="39" spans="3:9" ht="54">
+      <c r="H39" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="H38" s="37" t="s">
+      <c r="I39" s="28" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="K18:L20"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q11:Q24"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="F6:G7"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R11:R25"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="L19:M21"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="K17:L18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
